--- a/inputs.xlsx
+++ b/inputs.xlsx
@@ -1,31 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pym4o\Desktop\MSC\Codes\Matlab\Me\Thick\3rd\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m4oughi\Desktop\ModeratelyThickPlate_FSM_TSDT\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CDC4194-4CF4-41CC-AE6D-E58E9A0356F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12000" windowHeight="5772"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -97,8 +93,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -131,6 +127,12 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -288,64 +290,35 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>167640</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="65" cy="162224"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="TextBox 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6758940" y="2537460"/>
-          <a:ext cx="65" cy="162224"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="1" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="fa-IR" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-</xdr:wsDr>
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="2">
+          <cell r="A2" t="str">
+            <v>K2-1</v>
+          </cell>
+          <cell r="B2" t="str">
+            <v>K2-2</v>
+          </cell>
+          <cell r="C2" t="str">
+            <v>K2-3</v>
+          </cell>
+          <cell r="D2" t="str">
+            <v>K2-4</v>
+          </cell>
+          <cell r="E2" t="str">
+            <v>K2-5</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -610,11 +583,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.3"/>
@@ -623,6 +596,7 @@
     <col min="2" max="2" width="16.44140625" style="3" customWidth="1"/>
     <col min="3" max="3" width="26" style="1" customWidth="1"/>
     <col min="5" max="5" width="17.109375" customWidth="1"/>
+    <col min="16" max="21" width="12.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
@@ -718,7 +692,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="10">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -729,7 +703,7 @@
         <v>9</v>
       </c>
       <c r="C10" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -738,7 +712,7 @@
         <v>10</v>
       </c>
       <c r="C11" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -755,8 +729,8 @@
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="A10:A12"/>
   </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>